--- a/Data Files/RawData/Add Task.xlsx
+++ b/Data Files/RawData/Add Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Katalon Studio\Katalon Mobile\Data Files\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE072E73-9361-4A90-A2CE-1E43936DA5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A4C58-6920-4BC6-BAD6-30B697357FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>P</t>
   </si>
@@ -91,6 +91,39 @@
   </si>
   <si>
     <t>QA</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Sat, Apr 19</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Datess</t>
+  </si>
+  <si>
+    <t>Thu, feb 20</t>
+  </si>
+  <si>
+    <t>Wed, May 21</t>
+  </si>
+  <si>
+    <t>ScYear</t>
+  </si>
+  <si>
+    <t>strHours</t>
+  </si>
+  <si>
+    <t>strMinutes</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>AM</t>
   </si>
 </sst>
 </file>
@@ -126,9 +159,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -423,11 +455,11 @@
     <col min="5" max="5" width="23.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
-    <col min="9" max="9" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="11.19921875" customWidth="1"/>
+    <col min="15" max="15" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -453,21 +485,42 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -481,22 +534,43 @@
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>2025</v>
+      </c>
+      <c r="L2">
+        <v>2089</v>
+      </c>
+      <c r="M2">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -510,22 +584,43 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3">
+        <v>2025</v>
+      </c>
+      <c r="L3">
+        <v>2072</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
         <v>19</v>
       </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -539,8 +634,29 @@
       <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
         <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>2025</v>
+      </c>
+      <c r="L4">
+        <v>2099</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/RawData/Add Task.xlsx
+++ b/Data Files/RawData/Add Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Katalon Studio\Katalon Mobile\Data Files\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0A4C58-6920-4BC6-BAD6-30B697357FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3305F1CD-FCBE-4E32-8794-70E4049208A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
     <t>Datess</t>
   </si>
   <si>
-    <t>Thu, feb 20</t>
-  </si>
-  <si>
     <t>Wed, May 21</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>AM</t>
+  </si>
+  <si>
+    <t>Thu, Feb 20</t>
   </si>
 </sst>
 </file>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -494,19 +494,19 @@
         <v>24</v>
       </c>
       <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
-      </c>
-      <c r="N1" t="s">
-        <v>30</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
@@ -556,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
@@ -588,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>2025</v>
@@ -638,7 +638,7 @@
         <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>2025</v>
@@ -656,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
